--- a/natmiOut/OldD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Sema3c-Plxnd1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,18 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,15 +95,6 @@
   </si>
   <si>
     <t>Plxnd1</t>
-  </si>
-  <si>
-    <t>ECs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T11"/>
+  <dimension ref="A1:T26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H2">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I2">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J2">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N2">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O2">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P2">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q2">
-        <v>1101.841601423424</v>
+        <v>58.26759345922466</v>
       </c>
       <c r="R2">
-        <v>1101.841601423424</v>
+        <v>524.408341133022</v>
       </c>
       <c r="S2">
-        <v>0.4168894614861679</v>
+        <v>0.01858202848120022</v>
       </c>
       <c r="T2">
-        <v>0.4168894614861679</v>
+        <v>0.02011440006181541</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H3">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I3">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J3">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N3">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O3">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P3">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q3">
-        <v>348.3293623352915</v>
+        <v>18.24877549899066</v>
       </c>
       <c r="R3">
-        <v>348.3293623352915</v>
+        <v>164.238979490916</v>
       </c>
       <c r="S3">
-        <v>0.1317928458103078</v>
+        <v>0.005819688886011278</v>
       </c>
       <c r="T3">
-        <v>0.1317928458103078</v>
+        <v>0.006299610971265223</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +649,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>25</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H4">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I4">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J4">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N4">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O4">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P4">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q4">
-        <v>305.2801298823173</v>
+        <v>16.23054975096355</v>
       </c>
       <c r="R4">
-        <v>305.2801298823173</v>
+        <v>146.074947758672</v>
       </c>
       <c r="S4">
-        <v>0.1155048681994348</v>
+        <v>0.005176059621357067</v>
       </c>
       <c r="T4">
-        <v>0.1155048681994348</v>
+        <v>0.005602904659903961</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,61 +711,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
-        <v>26</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H5">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I5">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J5">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N5">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O5">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P5">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q5">
-        <v>268.8346430774193</v>
+        <v>13.05348382642867</v>
       </c>
       <c r="R5">
-        <v>268.8346430774193</v>
+        <v>117.481354437858</v>
       </c>
       <c r="S5">
-        <v>0.1017154638530505</v>
+        <v>0.004162866420960497</v>
       </c>
       <c r="T5">
-        <v>0.1017154638530505</v>
+        <v>0.004506158231315376</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,61 +773,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>10.9600429864062</v>
+        <v>0.5255753333333333</v>
       </c>
       <c r="H6">
-        <v>10.9600429864062</v>
+        <v>1.576726</v>
       </c>
       <c r="I6">
-        <v>0.9058500627285876</v>
+        <v>0.03954912334870177</v>
       </c>
       <c r="J6">
-        <v>0.9058500627285876</v>
+        <v>0.04071472570819976</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>33.7482220821081</v>
+        <v>34.654647</v>
       </c>
       <c r="N6">
-        <v>33.7482220821081</v>
+        <v>69.30929399999999</v>
       </c>
       <c r="O6">
-        <v>0.1544929223254445</v>
+        <v>0.1468674763776624</v>
       </c>
       <c r="P6">
-        <v>0.1544929223254445</v>
+        <v>0.1029517382467741</v>
       </c>
       <c r="Q6">
-        <v>369.8819647346878</v>
+        <v>18.213627648574</v>
       </c>
       <c r="R6">
-        <v>369.8819647346878</v>
+        <v>109.281765891444</v>
       </c>
       <c r="S6">
-        <v>0.1399474233796267</v>
+        <v>0.005808479939172715</v>
       </c>
       <c r="T6">
-        <v>0.1399474233796267</v>
+        <v>0.004191651783899784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -835,61 +835,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H7">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I7">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J7">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>100.532598529955</v>
+        <v>110.864399</v>
       </c>
       <c r="N7">
-        <v>100.532598529955</v>
+        <v>332.593197</v>
       </c>
       <c r="O7">
-        <v>0.4602190568165552</v>
+        <v>0.4698467856635863</v>
       </c>
       <c r="P7">
-        <v>0.4602190568165552</v>
+        <v>0.4940325573104491</v>
       </c>
       <c r="Q7">
-        <v>114.520406770817</v>
+        <v>1280.523904407638</v>
       </c>
       <c r="R7">
-        <v>114.520406770817</v>
+        <v>11524.71513966875</v>
       </c>
       <c r="S7">
-        <v>0.04332959533038726</v>
+        <v>0.4083699059789017</v>
       </c>
       <c r="T7">
-        <v>0.04332959533038726</v>
+        <v>0.4420462314098779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -897,61 +897,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H8">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I8">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J8">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>31.7817514737238</v>
+        <v>34.721522</v>
       </c>
       <c r="N8">
-        <v>31.7817514737238</v>
+        <v>104.164566</v>
       </c>
       <c r="O8">
-        <v>0.1454907950365687</v>
+        <v>0.1471508947164138</v>
       </c>
       <c r="P8">
-        <v>0.1454907950365687</v>
+        <v>0.1547256149142253</v>
       </c>
       <c r="Q8">
-        <v>36.20377031809616</v>
+        <v>401.0461367171234</v>
       </c>
       <c r="R8">
-        <v>36.20377031809616</v>
+        <v>3609.41523045411</v>
       </c>
       <c r="S8">
-        <v>0.01369794922626087</v>
+        <v>0.1278970057338638</v>
       </c>
       <c r="T8">
-        <v>0.01369794922626087</v>
+        <v>0.1384440639859074</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -959,61 +959,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H9">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I9">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J9">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>27.8539172027845</v>
+        <v>30.88149066666667</v>
       </c>
       <c r="N9">
-        <v>27.8539172027845</v>
+        <v>92.64447200000001</v>
       </c>
       <c r="O9">
-        <v>0.1275099190825386</v>
+        <v>0.1308767219874919</v>
       </c>
       <c r="P9">
-        <v>0.1275099190825386</v>
+        <v>0.1376137149998179</v>
       </c>
       <c r="Q9">
-        <v>31.72942881082581</v>
+        <v>356.6923860057911</v>
       </c>
       <c r="R9">
-        <v>31.72942881082581</v>
+        <v>3210.231474052121</v>
       </c>
       <c r="S9">
-        <v>0.01200505088310389</v>
+        <v>0.1137522194120675</v>
       </c>
       <c r="T9">
-        <v>0.01200505088310389</v>
+        <v>0.1231328243570717</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1021,61 +1021,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>23</v>
       </c>
-      <c r="D10" t="s">
-        <v>26</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.13913704057589</v>
+        <v>11.55036166666667</v>
       </c>
       <c r="H10">
-        <v>1.13913704057589</v>
+        <v>34.651085</v>
       </c>
       <c r="I10">
-        <v>0.09414993727141244</v>
+        <v>0.8691554745918758</v>
       </c>
       <c r="J10">
-        <v>0.09414993727141244</v>
+        <v>0.8947714576067847</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>24.5286121058883</v>
+        <v>24.836561</v>
       </c>
       <c r="N10">
-        <v>24.5286121058883</v>
+        <v>74.509683</v>
       </c>
       <c r="O10">
-        <v>0.1122873067388931</v>
+        <v>0.1052581212548456</v>
       </c>
       <c r="P10">
-        <v>0.1122873067388931</v>
+        <v>0.1106763745287336</v>
       </c>
       <c r="Q10">
-        <v>27.94145060373555</v>
+        <v>286.8712621062284</v>
       </c>
       <c r="R10">
-        <v>27.94145060373555</v>
+        <v>2581.841358956055</v>
       </c>
       <c r="S10">
-        <v>0.01057184288584263</v>
+        <v>0.09148567233390455</v>
       </c>
       <c r="T10">
-        <v>0.01057184288584263</v>
+        <v>0.09903006095970943</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1083,61 +1083,991 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>11.55036166666667</v>
+      </c>
+      <c r="H11">
+        <v>34.651085</v>
+      </c>
+      <c r="I11">
+        <v>0.8691554745918758</v>
+      </c>
+      <c r="J11">
+        <v>0.8947714576067847</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>34.654647</v>
+      </c>
+      <c r="N11">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O11">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P11">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q11">
+        <v>400.273706280665</v>
+      </c>
+      <c r="R11">
+        <v>2401.64223768399</v>
+      </c>
+      <c r="S11">
+        <v>0.1276506711331383</v>
+      </c>
+      <c r="T11">
+        <v>0.09211827689421818</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.031581</v>
+      </c>
+      <c r="H12">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J12">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>110.864399</v>
+      </c>
+      <c r="N12">
+        <v>332.593197</v>
+      </c>
+      <c r="O12">
+        <v>0.4698467856635863</v>
+      </c>
+      <c r="P12">
+        <v>0.4940325573104491</v>
+      </c>
+      <c r="Q12">
+        <v>3.501208584819</v>
+      </c>
+      <c r="R12">
+        <v>31.510877263371</v>
+      </c>
+      <c r="S12">
+        <v>0.001116565036914691</v>
+      </c>
+      <c r="T12">
+        <v>0.001208642849205618</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.031581</v>
+      </c>
+      <c r="H13">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I13">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J13">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>34.721522</v>
+      </c>
+      <c r="N13">
+        <v>104.164566</v>
+      </c>
+      <c r="O13">
+        <v>0.1471508947164138</v>
+      </c>
+      <c r="P13">
+        <v>0.1547256149142253</v>
+      </c>
+      <c r="Q13">
+        <v>1.096540386282</v>
+      </c>
+      <c r="R13">
+        <v>9.868863476537999</v>
+      </c>
+      <c r="S13">
+        <v>0.0003496960056010788</v>
+      </c>
+      <c r="T13">
+        <v>0.000378533773306574</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.031581</v>
+      </c>
+      <c r="H14">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I14">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J14">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>30.88149066666667</v>
+      </c>
+      <c r="N14">
+        <v>92.64447200000001</v>
+      </c>
+      <c r="O14">
+        <v>0.1308767219874919</v>
+      </c>
+      <c r="P14">
+        <v>0.1376137149998179</v>
+      </c>
+      <c r="Q14">
+        <v>0.975268356744</v>
+      </c>
+      <c r="R14">
+        <v>8.777415210696001</v>
+      </c>
+      <c r="S14">
+        <v>0.0003110213294549799</v>
+      </c>
+      <c r="T14">
+        <v>0.00033666978041415</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
         <v>23</v>
       </c>
-      <c r="D11" t="s">
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.031581</v>
+      </c>
+      <c r="H15">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I15">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J15">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>24.836561</v>
+      </c>
+      <c r="N15">
+        <v>74.509683</v>
+      </c>
+      <c r="O15">
+        <v>0.1052581212548456</v>
+      </c>
+      <c r="P15">
+        <v>0.1106763745287336</v>
+      </c>
+      <c r="Q15">
+        <v>0.784363432941</v>
+      </c>
+      <c r="R15">
+        <v>7.059270896468999</v>
+      </c>
+      <c r="S15">
+        <v>0.0002501401342535484</v>
+      </c>
+      <c r="T15">
+        <v>0.0002707680023729632</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.031581</v>
+      </c>
+      <c r="H16">
+        <v>0.09474299999999999</v>
+      </c>
+      <c r="I16">
+        <v>0.002376444983735952</v>
+      </c>
+      <c r="J16">
+        <v>0.002446484207003607</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>34.654647</v>
+      </c>
+      <c r="N16">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O16">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P16">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q16">
+        <v>1.094428406907</v>
+      </c>
+      <c r="R16">
+        <v>6.566570441441999</v>
+      </c>
+      <c r="S16">
+        <v>0.0003490224775116543</v>
+      </c>
+      <c r="T16">
+        <v>0.000251869801704302</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H17">
+        <v>0.120934</v>
+      </c>
+      <c r="I17">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J17">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>110.864399</v>
+      </c>
+      <c r="N17">
+        <v>332.593197</v>
+      </c>
+      <c r="O17">
+        <v>0.4698467856635863</v>
+      </c>
+      <c r="P17">
+        <v>0.4940325573104491</v>
+      </c>
+      <c r="Q17">
+        <v>4.469091742888667</v>
+      </c>
+      <c r="R17">
+        <v>40.22182568599801</v>
+      </c>
+      <c r="S17">
+        <v>0.001425231164035772</v>
+      </c>
+      <c r="T17">
+        <v>0.00154276320494213</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>1.13913704057589</v>
-      </c>
-      <c r="H11">
-        <v>1.13913704057589</v>
-      </c>
-      <c r="I11">
-        <v>0.09414993727141244</v>
-      </c>
-      <c r="J11">
-        <v>0.09414993727141244</v>
-      </c>
-      <c r="K11">
-        <v>1</v>
-      </c>
-      <c r="L11">
-        <v>1</v>
-      </c>
-      <c r="M11">
-        <v>33.7482220821081</v>
-      </c>
-      <c r="N11">
-        <v>33.7482220821081</v>
-      </c>
-      <c r="O11">
-        <v>0.1544929223254445</v>
-      </c>
-      <c r="P11">
-        <v>0.1544929223254445</v>
-      </c>
-      <c r="Q11">
-        <v>38.44384982731052</v>
-      </c>
-      <c r="R11">
-        <v>38.44384982731052</v>
-      </c>
-      <c r="S11">
-        <v>0.01454549894581779</v>
-      </c>
-      <c r="T11">
-        <v>0.01454549894581779</v>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H18">
+        <v>0.120934</v>
+      </c>
+      <c r="I18">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J18">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>34.721522</v>
+      </c>
+      <c r="N18">
+        <v>104.164566</v>
+      </c>
+      <c r="O18">
+        <v>0.1471508947164138</v>
+      </c>
+      <c r="P18">
+        <v>0.1547256149142253</v>
+      </c>
+      <c r="Q18">
+        <v>1.399670847182667</v>
+      </c>
+      <c r="R18">
+        <v>12.597037624644</v>
+      </c>
+      <c r="S18">
+        <v>0.0004463668739786671</v>
+      </c>
+      <c r="T18">
+        <v>0.0004831766287858439</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H19">
+        <v>0.120934</v>
+      </c>
+      <c r="I19">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J19">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>30.88149066666667</v>
+      </c>
+      <c r="N19">
+        <v>92.64447200000001</v>
+      </c>
+      <c r="O19">
+        <v>0.1308767219874919</v>
+      </c>
+      <c r="P19">
+        <v>0.1376137149998179</v>
+      </c>
+      <c r="Q19">
+        <v>1.244874064094222</v>
+      </c>
+      <c r="R19">
+        <v>11.203866576848</v>
+      </c>
+      <c r="S19">
+        <v>0.0003970008703155751</v>
+      </c>
+      <c r="T19">
+        <v>0.0004297396454049884</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G20">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H20">
+        <v>0.120934</v>
+      </c>
+      <c r="I20">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J20">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>24.836561</v>
+      </c>
+      <c r="N20">
+        <v>74.509683</v>
+      </c>
+      <c r="O20">
+        <v>0.1052581212548456</v>
+      </c>
+      <c r="P20">
+        <v>0.1106763745287336</v>
+      </c>
+      <c r="Q20">
+        <v>1.001194889324666</v>
+      </c>
+      <c r="R20">
+        <v>9.010754003921999</v>
+      </c>
+      <c r="S20">
+        <v>0.0003192895200259504</v>
+      </c>
+      <c r="T20">
+        <v>0.0003456198093682059</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>24</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G21">
+        <v>0.04031133333333333</v>
+      </c>
+      <c r="H21">
+        <v>0.120934</v>
+      </c>
+      <c r="I21">
+        <v>0.003033395582397893</v>
+      </c>
+      <c r="J21">
+        <v>0.003122796629722241</v>
+      </c>
+      <c r="K21">
+        <v>2</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>34.654647</v>
+      </c>
+      <c r="N21">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O21">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P21">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q21">
+        <v>1.396975026766</v>
+      </c>
+      <c r="R21">
+        <v>8.381850160595999</v>
+      </c>
+      <c r="S21">
+        <v>0.0004455071540419281</v>
+      </c>
+      <c r="T21">
+        <v>0.0003214973412210724</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>2</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>1.1413485</v>
+      </c>
+      <c r="H22">
+        <v>2.282697</v>
+      </c>
+      <c r="I22">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J22">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>110.864399</v>
+      </c>
+      <c r="N22">
+        <v>332.593197</v>
+      </c>
+      <c r="O22">
+        <v>0.4698467856635863</v>
+      </c>
+      <c r="P22">
+        <v>0.4940325573104491</v>
+      </c>
+      <c r="Q22">
+        <v>126.5349155020515</v>
+      </c>
+      <c r="R22">
+        <v>759.2094930123089</v>
+      </c>
+      <c r="S22">
+        <v>0.04035305500253401</v>
+      </c>
+      <c r="T22">
+        <v>0.02912051978460801</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23">
+        <v>2</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>1.1413485</v>
+      </c>
+      <c r="H23">
+        <v>2.282697</v>
+      </c>
+      <c r="I23">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J23">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>34.721522</v>
+      </c>
+      <c r="N23">
+        <v>104.164566</v>
+      </c>
+      <c r="O23">
+        <v>0.1471508947164138</v>
+      </c>
+      <c r="P23">
+        <v>0.1547256149142253</v>
+      </c>
+      <c r="Q23">
+        <v>39.629357052417</v>
+      </c>
+      <c r="R23">
+        <v>237.776142314502</v>
+      </c>
+      <c r="S23">
+        <v>0.01263813721695902</v>
+      </c>
+      <c r="T23">
+        <v>0.009120229554960222</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+      <c r="E24">
+        <v>2</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1.1413485</v>
+      </c>
+      <c r="H24">
+        <v>2.282697</v>
+      </c>
+      <c r="I24">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J24">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>30.88149066666667</v>
+      </c>
+      <c r="N24">
+        <v>92.64447200000001</v>
+      </c>
+      <c r="O24">
+        <v>0.1308767219874919</v>
+      </c>
+      <c r="P24">
+        <v>0.1376137149998179</v>
+      </c>
+      <c r="Q24">
+        <v>35.246543050164</v>
+      </c>
+      <c r="R24">
+        <v>211.479258300984</v>
+      </c>
+      <c r="S24">
+        <v>0.01124042075429679</v>
+      </c>
+      <c r="T24">
+        <v>0.008111576557023093</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.1413485</v>
+      </c>
+      <c r="H25">
+        <v>2.282697</v>
+      </c>
+      <c r="I25">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J25">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>24.836561</v>
+      </c>
+      <c r="N25">
+        <v>74.509683</v>
+      </c>
+      <c r="O25">
+        <v>0.1052581212548456</v>
+      </c>
+      <c r="P25">
+        <v>0.1106763745287336</v>
+      </c>
+      <c r="Q25">
+        <v>28.3471716425085</v>
+      </c>
+      <c r="R25">
+        <v>170.083029855051</v>
+      </c>
+      <c r="S25">
+        <v>0.009040152845701088</v>
+      </c>
+      <c r="T25">
+        <v>0.00652376752596768</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>1.1413485</v>
+      </c>
+      <c r="H26">
+        <v>2.282697</v>
+      </c>
+      <c r="I26">
+        <v>0.08588556149328877</v>
+      </c>
+      <c r="J26">
+        <v>0.05894453584828972</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>34.654647</v>
+      </c>
+      <c r="N26">
+        <v>69.30929399999999</v>
+      </c>
+      <c r="O26">
+        <v>0.1468674763776624</v>
+      </c>
+      <c r="P26">
+        <v>0.1029517382467741</v>
+      </c>
+      <c r="Q26">
+        <v>39.55302937147949</v>
+      </c>
+      <c r="R26">
+        <v>158.212117485918</v>
+      </c>
+      <c r="S26">
+        <v>0.01261379567379786</v>
+      </c>
+      <c r="T26">
+        <v>0.006068442425730714</v>
       </c>
     </row>
   </sheetData>
